--- a/InputData/trans/EoVPwFE/Elasticity of Veh Price wrt Fuel Econ.xlsx
+++ b/InputData/trans/EoVPwFE/Elasticity of Veh Price wrt Fuel Econ.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoVPwFE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="23952" windowHeight="13092"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23955" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" r:id="rId2"/>
     <sheet name="EoVPwFE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Source:</t>
   </si>
@@ -118,12 +123,21 @@
   </si>
   <si>
     <t>In 2012$ dollars</t>
+  </si>
+  <si>
+    <t>The model uses LDVs elasticity for all vehicle types because no data on price elasticity</t>
+  </si>
+  <si>
+    <t>of other vehicle types with respect to fuel economy is available.</t>
+  </si>
+  <si>
+    <t>Elasticity (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -277,12 +291,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6"/>
@@ -300,6 +314,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -348,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,22 +609,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,103 +634,116 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="22" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="23" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="24" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="25" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -731,10 +763,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -789,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <f>B4*About!A24</f>
+        <f>B4*About!A27</f>
         <v>24461.23</v>
       </c>
       <c r="C5" s="5"/>
@@ -849,19 +881,21 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
